--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2732892.1125933</v>
+        <v>-2735373.032418758</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1385,10 +1385,10 @@
         <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>14.65678318579961</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104935</v>
+        <v>82.26761520104945</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>52.35784172413053</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>52.58162707712572</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247499</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.30772963102604</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292087</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
         <v>192.6288026890427</v>
@@ -1588,7 +1588,7 @@
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>92.11726172052697</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019107</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763539</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838809</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335563</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851351</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545848</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>304.844536438876</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001938</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579933</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.2676152010492</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524935</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830082</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302863</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>283.4525524955472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948106</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594425</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>118.5009014358046</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719016</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271941</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292069</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443152</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890425</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184862</v>
       </c>
       <c r="V16" t="n">
-        <v>6.693342143987909</v>
+        <v>225.2174967367013</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>112.9301201725903</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019105</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649681</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>88.34817718578492</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1859,7 +1859,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T17" t="n">
-        <v>17.68304980209888</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290875</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249327</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085009</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721216</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330914</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860176</v>
+        <v>70.8597317086017</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0533602654128</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130725</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.7672026803505</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
@@ -2087,16 +2087,16 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245681</v>
+        <v>9.362935956136342</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290875</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249327</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085009</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721222</v>
+        <v>133.9254590121759</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330914</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860176</v>
+        <v>70.8597317086017</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>275.0274093258348</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290875</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249327</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085009</v>
       </c>
       <c r="F25" t="n">
-        <v>133.9254590121749</v>
+        <v>71.52576481721216</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330914</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860176</v>
+        <v>70.8597317086017</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>207.0890643413395</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695832</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,10 +2776,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524151</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.900909123119</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.946589034861</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958332</v>
+        <v>62.2126251695834</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515425</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988206</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598766</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633449</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797673</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.4459114043388</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572834</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124567</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514549</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128495</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575768</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052356</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179986</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007084</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052283</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846416</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>42.20693826439329</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>135.6235431859976</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
@@ -3512,10 +3512,10 @@
         <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592154</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115151</v>
@@ -3560,13 +3560,13 @@
         <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279485</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383225</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010731</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846412</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G40" t="n">
-        <v>111.8803261135845</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.20693826439435</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239897</v>
@@ -3904,19 +3904,19 @@
         <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>90.95618068285796</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>120.632893671642</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
         <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>92.08430510333687</v>
@@ -3964,7 +3964,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,7 +4135,7 @@
         <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>111.7690391349167</v>
       </c>
       <c r="D46" t="n">
         <v>50.93075279010733</v>
@@ -4144,16 +4144,16 @@
         <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
@@ -4195,13 +4195,13 @@
         <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>164.4391712066506</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5021,7 +5021,7 @@
         <v>1813.052518175211</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828184</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="E11" t="n">
         <v>1123.382701489664</v>
@@ -5033,55 +5033,55 @@
         <v>351.7084810645002</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299114</v>
+        <v>81.3169479329911</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939505</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.507220395987</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3242.507220395987</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573495</v>
+        <v>3189.620511583734</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489648</v>
+        <v>3189.620511583734</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479258</v>
+        <v>2864.043923573344</v>
       </c>
       <c r="X11" t="n">
-        <v>2207.935722479258</v>
+        <v>2517.770232571987</v>
       </c>
       <c r="Y11" t="n">
         <v>2154.822967855899</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.9026415647595</v>
+        <v>587.4900012265292</v>
       </c>
       <c r="C13" t="n">
-        <v>516.9026415647595</v>
+        <v>445.7458855583459</v>
       </c>
       <c r="D13" t="n">
-        <v>516.9026415647595</v>
+        <v>445.7458855583459</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420901</v>
+        <v>445.7458855583459</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420901</v>
+        <v>326.0480053201593</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765328</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705055</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.942556361061</v>
+        <v>1082.94255636106</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229848</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784765</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162334</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991586</v>
+        <v>1718.795353991584</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1456.884554376951</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.39213343079</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535533</v>
+        <v>1136.344394319146</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152597</v>
+        <v>935.5469106808517</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314534</v>
+        <v>741.9463987970453</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.822967855899</v>
+        <v>2074.866359141301</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175211</v>
+        <v>1733.095909460613</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828184</v>
+        <v>1402.022278113586</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>1043.426092775066</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597797</v>
+        <v>659.6322552451825</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645001</v>
+        <v>351.7084810644997</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299101</v>
+        <v>81.31694793299081</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.820141253115</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3146.820141253115</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="V14" t="n">
-        <v>3146.820141253115</v>
+        <v>2759.850719956089</v>
       </c>
       <c r="W14" t="n">
-        <v>3146.820141253115</v>
+        <v>2434.274131945699</v>
       </c>
       <c r="X14" t="n">
-        <v>2800.546450251759</v>
+        <v>2434.274131945699</v>
       </c>
       <c r="Y14" t="n">
-        <v>2514.230740660297</v>
+        <v>2434.274131945699</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237415</v>
+        <v>566.4669118810145</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555583</v>
+        <v>566.4669118810145</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029463</v>
+        <v>566.4669118810145</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802769</v>
+        <v>445.7458855583454</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420902</v>
+        <v>326.0480053201589</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765328</v>
+        <v>185.5372359546017</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003744</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705062</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402576</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.942556361061</v>
+        <v>1082.942556361062</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.001878188182</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.982422229851</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058536</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075787</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162337</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991585</v>
+        <v>1718.795353991587</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1456.884554376955</v>
       </c>
       <c r="V16" t="n">
-        <v>1450.123602716357</v>
+        <v>1229.392133430792</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.123602716357</v>
+        <v>1115.32130497363</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.326119078064</v>
+        <v>914.5238213353366</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194257</v>
+        <v>720.9233094515304</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1632.378438483217</v>
+        <v>1650.240104949982</v>
       </c>
       <c r="C17" t="n">
-        <v>1338.057621750602</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D17" t="n">
-        <v>1054.433623351648</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>743.287070961201</v>
+        <v>966.2289711446372</v>
       </c>
       <c r="F17" t="n">
-        <v>406.94286637939</v>
+        <v>629.8847665628267</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
         <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3272.095186877297</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="U17" t="n">
-        <v>3093.20641035893</v>
+        <v>3111.068076825695</v>
       </c>
       <c r="V17" t="n">
-        <v>2836.785223223156</v>
+        <v>2854.646889689921</v>
       </c>
       <c r="W17" t="n">
-        <v>2558.658268160839</v>
+        <v>2576.519934627604</v>
       </c>
       <c r="X17" t="n">
-        <v>2259.834210107556</v>
+        <v>2277.695876574322</v>
       </c>
       <c r="Y17" t="n">
-        <v>1944.336578339541</v>
+        <v>1962.198244806307</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5604,40 +5604,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872285</v>
+        <v>569.121778987228</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671186</v>
+        <v>474.8272962671182</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625795</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604109</v>
+        <v>89.196093406041</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5698,25 +5698,25 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
         <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356247</v>
+        <v>975.6272732356241</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454043</v>
+        <v>822.2794225454038</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096712</v>
+        <v>676.1285436096707</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.976134084841</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.655317352226</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>941.0313189532728</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8847665628258</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628258</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810546</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3316.148310542365</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3316.148310542365</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417715</v>
+        <v>3316.148310542365</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281941</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219624</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166341</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398327</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872285</v>
+        <v>632.151773123555</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671186</v>
+        <v>537.8572904034452</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>462.3823511989065</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>389.1109578243104</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604109</v>
+        <v>89.196093406041</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5935,7 +5935,7 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
@@ -5944,16 +5944,16 @@
         <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356247</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454043</v>
+        <v>885.3094166817308</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096712</v>
+        <v>739.1585377459977</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9802179168072</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1368.014431165216</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1901.54633583714</v>
+        <v>1917.058658516337</v>
       </c>
       <c r="N23" t="n">
-        <v>2448.325152895922</v>
+        <v>2463.837475575119</v>
       </c>
       <c r="O23" t="n">
-        <v>2951.297623775259</v>
+        <v>2966.809946454456</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3361.584312811633</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.23877285901</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451029</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.592761796889</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734572</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.641748681289</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714071</v>
+        <v>948.4094928714064</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902801</v>
+        <v>773.9564635902794</v>
       </c>
       <c r="D24" t="n">
-        <v>625.022053929029</v>
+        <v>625.0220539290282</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235734</v>
+        <v>465.7845989235727</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504585</v>
+        <v>319.2500409504577</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830758</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094328</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130996</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
         <v>772.0173836061119</v>
@@ -6078,37 +6078,37 @@
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277039</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.91918092364</v>
+        <v>2571.919180923639</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516154</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009634</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687491</v>
+        <v>2249.69394068749</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821906</v>
+        <v>2021.626093821905</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590164</v>
+        <v>1786.473985590163</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861961</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.385128656429</v>
+        <v>1324.385128656428</v>
       </c>
       <c r="Y24" t="n">
         <v>1116.624829891475</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138534</v>
+        <v>575.987417377527</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937434</v>
+        <v>481.6929346574171</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892047</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9765962146086</v>
+        <v>332.9466020782824</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881691</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634007</v>
+        <v>96.06173179633998</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182942</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
@@ -6172,7 +6172,7 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.927245478739</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
         <v>1654.802330256063</v>
@@ -6181,16 +6181,16 @@
         <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
         <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720292</v>
+        <v>892.1750550720297</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362961</v>
+        <v>682.9941819999697</v>
       </c>
     </row>
     <row r="26">
@@ -6206,61 +6206,61 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>2971.628073400776</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6315,7 +6315,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,67 +6358,67 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973127</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982155</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350171</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,64 +6449,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398488</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2735.569460712893</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O29" t="n">
-        <v>3238.54193159223</v>
+        <v>3336.058965299584</v>
       </c>
       <c r="P29" t="n">
-        <v>3633.316297949408</v>
+        <v>3730.833331656761</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3979.119693412444</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6561,28 +6561,28 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899672</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643397</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960312</v>
@@ -6625,46 +6625,46 @@
         <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308446</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481266</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167332</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572253</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277854</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052754</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.38513864407</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519675</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.236323611206</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490542</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6795,10 +6795,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,13 +6877,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,55 +6920,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307329</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
@@ -6977,7 +6977,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7008,10 +7008,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>795.5993767202771</v>
+        <v>839.5784050866007</v>
       </c>
       <c r="C37" t="n">
-        <v>725.3346283662136</v>
+        <v>670.6422221586938</v>
       </c>
       <c r="D37" t="n">
-        <v>673.8894235277213</v>
+        <v>619.1970173202014</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>471.2839237378083</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>324.3939762398979</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>255.3625741884603</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>109.1453874063181</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1790.301070122838</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1667.205889266208</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1476.774456965695</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V37" t="n">
-        <v>1320.761403333651</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>1130.015667870534</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>1000.69755154636</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.5764069766733</v>
+        <v>922.555435342997</v>
       </c>
     </row>
     <row r="38">
@@ -7157,25 +7157,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,40 +7184,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7263,7 +7263,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127581</v>
+        <v>599.6022649647787</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586947</v>
+        <v>529.3375166107153</v>
       </c>
       <c r="D40" t="n">
-        <v>619.1970173202025</v>
+        <v>379.2208771983795</v>
       </c>
       <c r="E40" t="n">
-        <v>569.9553583116528</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F40" t="n">
-        <v>423.0654108137425</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515026</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084552</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1223.435726151996</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>1032.689990688879</v>
       </c>
       <c r="X40" t="n">
-        <v>946.005145338841</v>
+        <v>804.7004397908615</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691543</v>
+        <v>682.5792952211749</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464974</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
@@ -7412,7 +7412,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7500,7 +7500,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.4050786964424</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C43" t="n">
-        <v>482.1403303423789</v>
+        <v>473.2993530110072</v>
       </c>
       <c r="D43" t="n">
-        <v>430.6951255038867</v>
+        <v>421.854148172515</v>
       </c>
       <c r="E43" t="n">
-        <v>381.453466495337</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F43" t="n">
-        <v>333.2349535712701</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>211.3835458221368</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1522.683025816216</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U43" t="n">
-        <v>1332.251593515703</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V43" t="n">
-        <v>1176.23853988366</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>985.4928044205426</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X43" t="n">
-        <v>856.1746880963688</v>
+        <v>946.0051453388405</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.0535435266821</v>
+        <v>725.2125661953104</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7646,19 +7646,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7676,7 +7676,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>795.5993767202771</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C46" t="n">
-        <v>725.3346283662136</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D46" t="n">
-        <v>673.8894235277213</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332018</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.5764069766733</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>157.2353108430625</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728999</v>
+        <v>184.4039433728998</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389593</v>
+        <v>191.4948909389591</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333055</v>
+        <v>181.0856325333053</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830228</v>
+        <v>179.3553748830227</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383979</v>
+        <v>182.8301554383977</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586575</v>
+        <v>190.8908035586574</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266117</v>
+        <v>192.0103836266115</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875971</v>
+        <v>112.656200187597</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372527</v>
+        <v>113.6031223372526</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672266</v>
+        <v>105.9629718672265</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253583</v>
+        <v>104.1013981253582</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677558</v>
+        <v>92.30246558677544</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359727</v>
+        <v>106.8829608359726</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798317</v>
+        <v>105.3113487798316</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615453</v>
+        <v>120.8212784615452</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564653</v>
+        <v>116.1755252564652</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085223</v>
+        <v>119.1996074085222</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140773</v>
+        <v>108.4284123140772</v>
       </c>
       <c r="O10" t="n">
         <v>120.669460053092</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662701</v>
+        <v>122.50808566627</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.48334686148155e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.814425378434</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.66901280727143</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>12.68816924374732</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544151</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.18875040233544</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>19.40311602546713</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>209.1187564935612</v>
+        <v>343.5485285966315</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.717183647645</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.7361649918014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.60410396378478</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271168</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>167.4855900289376</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>79.15704262745079</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.2676152010494</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717753</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913424</v>
       </c>
       <c r="Y14" t="n">
-        <v>75.86523957337991</v>
+        <v>359.3177920689269</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115012</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310857</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271147</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>218.5241545927136</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>146.672731576874</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>203.0294313795036</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>112.3396371318022</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07135577741105975</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>25.92954262632043</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1251806.936873692</v>
+        <v>1251806.936873691</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1251806.936873692</v>
+        <v>1251806.936873693</v>
       </c>
     </row>
     <row r="7">
@@ -26314,43 +26314,43 @@
         <v>40963.81693585192</v>
       </c>
       <c r="C2" t="n">
-        <v>40963.81693585192</v>
+        <v>40963.81693585193</v>
       </c>
       <c r="D2" t="n">
         <v>40964.93349029731</v>
       </c>
       <c r="E2" t="n">
-        <v>36477.00004524874</v>
+        <v>36477.00004524873</v>
       </c>
       <c r="F2" t="n">
-        <v>36477.00004524871</v>
+        <v>36477.00004524873</v>
       </c>
       <c r="G2" t="n">
-        <v>39726.54106232678</v>
+        <v>39726.54106232676</v>
       </c>
       <c r="H2" t="n">
-        <v>39726.54106232677</v>
+        <v>39726.54106232683</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>41052.08849321416</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321416</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321417</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321416</v>
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552432</v>
+        <v>59764.55367552452</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.97216363</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.008271960425191e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487395</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983372</v>
+        <v>22821.46782983369</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179707</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927241</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>1.023181539494544e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,34 +26421,34 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475033</v>
+        <v>426120.6833475032</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863748</v>
+        <v>39414.2179786375</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863748</v>
+        <v>39414.21797863769</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.3783400797</v>
+        <v>76442.37834007974</v>
       </c>
       <c r="H4" t="n">
         <v>76442.37834007971</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.33560602856</v>
+        <v>89331.33560602853</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936335</v>
+        <v>86909.55729936347</v>
       </c>
       <c r="K4" t="n">
         <v>86909.55729936337</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936344</v>
+        <v>86909.5572993634</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="N4" t="n">
         <v>91573.95495316948</v>
@@ -26457,7 +26457,7 @@
         <v>91573.95495316945</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316948</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.9054318664</v>
+        <v>35148.90543186641</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482639</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521488</v>
@@ -26491,10 +26491,10 @@
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26503,7 +26503,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439688.4033365409</v>
+        <v>-439692.816914409</v>
       </c>
       <c r="C6" t="n">
-        <v>-439688.4033365409</v>
+        <v>-439692.816914409</v>
       </c>
       <c r="D6" t="n">
-        <v>-480069.2089645967</v>
+        <v>-480073.5667147426</v>
       </c>
       <c r="E6" t="n">
-        <v>-1168745.680461846</v>
+        <v>-1168974.434884243</v>
       </c>
       <c r="F6" t="n">
-        <v>-79506.70829821518</v>
+        <v>-79735.46272061397</v>
       </c>
       <c r="G6" t="n">
-        <v>-154814.5896978418</v>
+        <v>-154880.8670693861</v>
       </c>
       <c r="H6" t="n">
-        <v>-117234.4804029678</v>
+        <v>-117300.7577745121</v>
       </c>
       <c r="I6" t="n">
-        <v>-156837.2432444902</v>
+        <v>-156837.2432444901</v>
       </c>
       <c r="J6" t="n">
-        <v>-160644.8435027522</v>
+        <v>-160644.8435027525</v>
       </c>
       <c r="K6" t="n">
         <v>-135235.4104809553</v>
       </c>
       <c r="L6" t="n">
-        <v>-172815.5197758295</v>
+        <v>-172815.5197758294</v>
       </c>
       <c r="M6" t="n">
-        <v>-335208.5637589293</v>
+        <v>-335208.5637589291</v>
       </c>
       <c r="N6" t="n">
-        <v>-133040.4637662052</v>
+        <v>-133040.4637662053</v>
       </c>
       <c r="O6" t="n">
         <v>-133040.4637662051</v>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810502</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790821</v>
+        <v>69.78465283790844</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="G4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="I4" t="n">
+        <v>917.2219352810296</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>917.22193528103</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790821</v>
+        <v>69.78465283790844</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755389</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873739</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758508</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959702</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>132.246564378017</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036571</v>
+        <v>202.627234303657</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448431</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672093</v>
+        <v>84.22861846672092</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987493</v>
+        <v>90.8382912698749</v>
       </c>
       <c r="S9" t="n">
         <v>168.8950767192289</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519061</v>
+        <v>84.46220888519058</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989957</v>
+        <v>7.649035050989909</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317025</v>
+        <v>75.62456067317021</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437876</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712666</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T19" t="n">
-        <v>11.49558901075636</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075551</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075537</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W22" t="n">
-        <v>11.49558901075619</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F25" t="n">
-        <v>11.49558901075639</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075531</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859082</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185954</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859122</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>54.14548214544482</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>54.14548214544428</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G40" t="n">
-        <v>54.14548214544369</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>46.72521440565299</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="41">
@@ -30624,19 +30624,19 @@
         <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
+        <v>55.47778196371121</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="F43" t="n">
-        <v>97.68472022810502</v>
-      </c>
-      <c r="G43" t="n">
-        <v>45.39291458738626</v>
       </c>
       <c r="H43" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>97.68472022810502</v>
@@ -30684,7 +30684,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30855,7 +30855,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>55.47778196371118</v>
       </c>
       <c r="D46" t="n">
         <v>97.68472022810502</v>
@@ -30864,16 +30864,16 @@
         <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>97.68472022810502</v>
@@ -30915,13 +30915,13 @@
         <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="X46" t="n">
-        <v>97.68472022810502</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>54.14548214544419</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413394</v>
+        <v>0.2805413179413402</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366742</v>
+        <v>2.873093772366751</v>
       </c>
       <c r="I8" t="n">
-        <v>10.8155691599335</v>
+        <v>10.81556915993353</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362377</v>
+        <v>23.81059368362385</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208067</v>
+        <v>35.68590767208079</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102794</v>
+        <v>44.27152403102809</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396723</v>
+        <v>49.2606006939674</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356807</v>
+        <v>50.05768871356823</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328887</v>
+        <v>47.26805598328903</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661205</v>
+        <v>40.34219219661218</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783783</v>
+        <v>30.29530624783793</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313267</v>
+        <v>17.62255356313273</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588276</v>
+        <v>6.392835282588297</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288213</v>
+        <v>1.228069619288217</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530714</v>
+        <v>0.02244330543530721</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796516</v>
+        <v>0.1501028381796521</v>
       </c>
       <c r="H9" t="n">
-        <v>1.44967741084032</v>
+        <v>1.449677410840325</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694147</v>
+        <v>5.168014384694163</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906963</v>
+        <v>14.18142647906968</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710629</v>
+        <v>24.23831663710637</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264761</v>
+        <v>32.59140791264771</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665997</v>
+        <v>38.0326357966601</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655773</v>
+        <v>39.03924649655786</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847176</v>
+        <v>35.71328360847188</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449857</v>
+        <v>28.66305863449866</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447623</v>
+        <v>19.1604956244763</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768198</v>
+        <v>9.319542882768229</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608878</v>
+        <v>2.788094384608887</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890342</v>
+        <v>0.6050197731890362</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345506</v>
+        <v>0.009875186722345539</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486869</v>
+        <v>0.1258411772486873</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811054</v>
+        <v>1.118842466811057</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078695</v>
+        <v>3.784387403078707</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482166</v>
+        <v>8.896971231482194</v>
       </c>
       <c r="K10" t="n">
-        <v>14.6204567748929</v>
+        <v>14.62045677489294</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477297</v>
+        <v>18.70915102477303</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390828</v>
+        <v>19.72617653908287</v>
       </c>
       <c r="N10" t="n">
-        <v>19.2571321511559</v>
+        <v>19.25713215115596</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875077</v>
+        <v>17.78707839875083</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287755</v>
+        <v>15.2199183828776</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852414</v>
+        <v>10.53748257852417</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381867</v>
+        <v>5.658276933381885</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233934</v>
+        <v>2.193068516233941</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625713</v>
+        <v>0.5376850300625731</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356475</v>
+        <v>0.006864064213564771</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33041,7 +33041,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33515,7 +33515,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33983,10 +33983,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002926</v>
@@ -34217,13 +34217,13 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019258</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573244</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806101</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546663</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322367</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019285</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314462</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573247</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806105</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546667</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322371</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250203</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36121,7 +36121,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865553998</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923319</v>
@@ -36358,13 +36358,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>878.7355412086605</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36373,7 +36373,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>414.4309990266431</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36607,13 +36607,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>520.7411701319663</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737867</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629103</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.9830552060549</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>79.01631456769185</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165864</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861355</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>761.4205919064725</v>
+        <v>895.8503640095428</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564848</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219371</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37631,10 +37631,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
@@ -37865,13 +37865,13 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
